--- a/medicine/Enfance/Luc_Turlan/Luc_Turlan.xlsx
+++ b/medicine/Enfance/Luc_Turlan/Luc_Turlan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Luc Turlan, né le 25 octobre 1958 à Lons-le-Saunier, est un dessinateur de bandes dessinées et de livres pour la jeunesse.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il passe son enfance à Valfin-sur-Valouse. Il s'installe d'abord en Seine-Maritime, puis dans la Vienne où il est nommé instituteur. 
 Comme dessinateur, il débute à Rouen où après quelques essais dans la publicité, il illustre l'actualité pour un journal étudiant (Le Perroquet Bleu). Il travaille comme assistant coloriste pour les éditions Delcourt. Il dessine d'ailleurs encore[Quand ?] régulièrement des strips pour la presse quotidienne régionale. 
@@ -549,7 +563,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>2002
 Saperlipopette, (épuisé) Éditions Lipokili.
